--- a/Question_Set2/Role-specific skills/Hospitality (Hotel excl. Restaurant).xlsx
+++ b/Question_Set2/Role-specific skills/Hospitality (Hotel excl. Restaurant).xlsx
@@ -16,23 +16,60 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'You are working at the front desk of a hotel. A guest comes in with a printout of their reservation confirmation. While you check the system, you find your colleague from the previous shift had canceled the reservation by mistake. There are a few available rooms in the hotel.Which of the following is the BEST course of action?', 'ques_type': 2, 'options': ['Apologize and tell the guest their reservation is showing up as canceled in the system.', 'Apologize and call in your supervisor to make them aware of your colleague’s mistake.', 'Apologize and check the system for a similar room to assign to the guest.', 'Apologize and assign any of the available rooms to the guest. '], 'score': 'Apologize and check the system for a similar room to assign to the guest.'}, {'title': 'You are working at the front desk at a hotel checking in guests. You notice a loyalty program customer and, based on your company policy, offer her a complimentary upgrade. After she leaves the counter, a new guest who was standing behind the earlier customer followed the transaction and demands an upgrade, too. Which of the following is the BEST action that you can take?', 'ques_type': 2, 'options': ['Inform the guest that he does not qualify for the upgrade as he is not a loyalty program member.', 'Explain to the guest that only loyalty program members qualify for an upgrade and offer to share program details.', 'Upgrade the guest as an exception and expect he will return as a delighted customer and join the loyalty program.', 'Ask the guest to wait and call your manager to seek advice on the suggested course of action.'], 'score': 'Explain to the guest that only loyalty program members qualify for an upgrade and offer to share program details.'}, {'title': 'You are working in the back office with a colleague who just had her annual performance appraisal. She complains that she is not being considered for a promotion yet. You find her applying for another job online. Which of the following is the FIRST thing you do?', 'ques_type': 2, 'options': ['Let it go as it is her personal choice to look for a job elsewhere.', 'Initiate a discussion and share tips to improve her performance before her next appraisal. ', 'Be empathetic, but tell her that using the computer for personal use can get her into trouble.', 'Inform your manager about her job search.'], 'score': 'Be empathetic, but tell her that using the computer for personal use can get her into trouble.'}, {'title': 'You are working as a manager in a hotel. There are rumors about a possible downsizing. The management team has indeed been informed by HR that there will be a corporate restructuring. They’ve asked that the details be kept confidential until the town hall meeting. Which of the following is the FIRST action you take?', 'ques_type': 2, 'options': ['You do not need to take any action as it is still just a rumor to the junior staff, and you have been asked to keep the information confidential.', 'You call the direct reports on your team who are struggling to do their jobs and give them an advance warning without divulging any further details, so they can improve their performance.', 'You tell the leadership team about the rumors and discuss whether they should change the communication plan.', 'You discuss what you know with the team and request that they keep the information to themselves until the town hall meeting.'], 'score': 'You tell the leadership team about the rumors and discuss whether they should change the communication plan.'}]</t>
+    <t>questions = [
+    {
+        "title": "You are working at the front desk of a hotel. A guest comes in with a printout of their reservation confirmation. While you check the system, you find your colleague from the previous shift had canceled the reservation by mistake. There are a few available rooms in the hotel.Which of the following is the BEST course of action?",
+        "ques_type": 2,
+        "options": [
+            "Apologize and tell the guest their reservation is showing up as canceled in the system.",
+            "Apologize and call in your supervisor to make them aware of your colleague\u2019s mistake.",
+            "Apologize and check the system for a similar room to assign to the guest.",
+            "Apologize and assign any of the available rooms to the guest. "
+        ],
+        "score": "Apologize and check the system for a similar room to assign to the guest."
+    },
+    {
+        "title": "You are working at the front desk at a hotel checking in guests. You notice a loyalty program customer and, based on your company policy, offer her a complimentary upgrade. After she leaves the counter, a new guest who was standing behind the earlier customer followed the transaction and demands an upgrade, too. Which of the following is the BEST action that you can take?",
+        "ques_type": 2,
+        "options": [
+            "Inform the guest that he does not qualify for the upgrade as he is not a loyalty program member.",
+            "Explain to the guest that only loyalty program members qualify for an upgrade and offer to share program details.",
+            "Upgrade the guest as an exception and expect he will return as a delighted customer and join the loyalty program.",
+            "Ask the guest to wait and call your manager to seek advice on the suggested course of action."
+        ],
+        "score": "Explain to the guest that only loyalty program members qualify for an upgrade and offer to share program details."
+    },
+    {
+        "title": "You are working in the back office with a colleague who just had her annual performance appraisal. She complains that she is not being considered for a promotion yet. You find her applying for another job online. Which of the following is the FIRST thing you do?",
+        "ques_type": 2,
+        "options": [
+            "Let it go as it is her personal choice to look for a job elsewhere.",
+            "Initiate a discussion and share tips to improve her performance before her next appraisal. ",
+            "Be empathetic, but tell her that using the computer for personal use can get her into trouble.",
+            "Inform your manager about her job search."
+        ],
+        "score": "Be empathetic, but tell her that using the computer for personal use can get her into trouble."
+    },
+    {
+        "title": "You are working as a manager in a hotel. There are rumors about a possible downsizing. The management team has indeed been informed by HR that there will be a corporate restructuring. They\u2019ve asked that the details be kept confidential until the town hall meeting. Which of the following is the FIRST action you take?",
+        "ques_type": 2,
+        "options": [
+            "You do not need to take any action as it is still just a rumor to the junior staff, and you have been asked to keep the information confidential.",
+            "You call the direct reports on your team who are struggling to do their jobs and give them an advance warning without divulging any further details, so they can improve their performance.",
+            "You tell the leadership team about the rumors and discuss whether they should change the communication plan.",
+            "You discuss what you know with the team and request that they keep the information to themselves until the town hall meeting."
+        ],
+        "score": "You tell the leadership team about the rumors and discuss whether they should change the communication plan."
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +93,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +393,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
